--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -356,31 +356,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>198</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -673,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -746,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -763,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -774,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>574</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -791,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -802,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>573</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -819,63 +794,63 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>410</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>309</v>
+        <v>572</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
         <v>16</v>
-      </c>
-      <c r="G5" t="n">
-        <v>84</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45867</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>574</v>
+        <v>313</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -883,27 +858,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45863</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -911,27 +886,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45862</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -939,27 +914,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45867</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -987,35 +962,35 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45866</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>410</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>309</v>
+        <v>894</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1043,63 +1018,63 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45867</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45866</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45863</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1127,46 +1102,46 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45867</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1175,26 +1150,26 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45863</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1203,878 +1178,346 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45867</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45866</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>906</v>
+        <v>793</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-khm</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D22" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D24" t="n">
-        <v>906</v>
+        <v>329</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45867</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D25" t="n">
-        <v>793</v>
+        <v>97</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F25" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45866</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>906</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D27" t="n">
-        <v>793</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F27" t="n">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45867</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D28" t="n">
-        <v>793</v>
+        <v>1085</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45866</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-khm</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D29" t="n">
-        <v>793</v>
+        <v>233</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="F29" t="n">
-        <v>137</v>
+        <v>459</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45863</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>315</v>
+        <v>1142</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>masterdata-khm</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>945</v>
-      </c>
-      <c r="D31" t="n">
-        <v>793</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>137</v>
-      </c>
-      <c r="G31" t="n">
-        <v>15</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>315</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>315</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>315</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>315</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>315</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>315</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>509</v>
-      </c>
-      <c r="D35" t="n">
-        <v>329</v>
-      </c>
-      <c r="E35" t="n">
-        <v>134</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
         <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>315</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>315</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>509</v>
-      </c>
-      <c r="D37" t="n">
-        <v>329</v>
-      </c>
-      <c r="E37" t="n">
-        <v>134</v>
-      </c>
-      <c r="F37" t="n">
-        <v>34</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>509</v>
-      </c>
-      <c r="D38" t="n">
-        <v>329</v>
-      </c>
-      <c r="E38" t="n">
-        <v>134</v>
-      </c>
-      <c r="F38" t="n">
-        <v>34</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>509</v>
-      </c>
-      <c r="D39" t="n">
-        <v>329</v>
-      </c>
-      <c r="E39" t="n">
-        <v>134</v>
-      </c>
-      <c r="F39" t="n">
-        <v>34</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>288</v>
-      </c>
-      <c r="D40" t="n">
-        <v>97</v>
-      </c>
-      <c r="E40" t="n">
-        <v>163</v>
-      </c>
-      <c r="F40" t="n">
-        <v>17</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>509</v>
-      </c>
-      <c r="D41" t="n">
-        <v>329</v>
-      </c>
-      <c r="E41" t="n">
-        <v>134</v>
-      </c>
-      <c r="F41" t="n">
-        <v>34</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>288</v>
-      </c>
-      <c r="D42" t="n">
-        <v>97</v>
-      </c>
-      <c r="E42" t="n">
-        <v>163</v>
-      </c>
-      <c r="F42" t="n">
-        <v>17</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>288</v>
-      </c>
-      <c r="D43" t="n">
-        <v>97</v>
-      </c>
-      <c r="E43" t="n">
-        <v>163</v>
-      </c>
-      <c r="F43" t="n">
-        <v>17</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>288</v>
-      </c>
-      <c r="D44" t="n">
-        <v>92</v>
-      </c>
-      <c r="E44" t="n">
-        <v>116</v>
-      </c>
-      <c r="F44" t="n">
-        <v>69</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1073</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" t="n">
-        <v>50</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>288</v>
-      </c>
-      <c r="D46" t="n">
-        <v>97</v>
-      </c>
-      <c r="E46" t="n">
-        <v>162</v>
-      </c>
-      <c r="F46" t="n">
-        <v>18</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1078</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>48</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1068</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>57</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1126</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1076</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -667,30 +667,30 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -858,1201 +858,1297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>555</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>384</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1089</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-khm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
@@ -2080,109 +2176,109 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1085</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>233</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>438</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>459</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,7 +656,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
@@ -676,21 +676,30 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,164 +863,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>555</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1020,160 +1109,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>384</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1182,160 +1311,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1344,160 +1513,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1506,160 +1715,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1668,160 +1917,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-khm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1830,160 +2119,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1992,160 +2321,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2200,82 +2569,106 @@
       <c r="Q10" t="n">
         <v/>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1085</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>233</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>438</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>459</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -649,7 +649,7 @@
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
@@ -833,152 +833,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>584</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>31</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -995,112 +995,112 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1141,87 +1141,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1287,87 +1287,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1433,87 +1433,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1579,87 +1579,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-khm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-khm</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>793</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1725,87 +1725,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1871,87 +1871,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -658,7 +658,7 @@
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
@@ -833,147 +833,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>584</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>582</t>
-        </is>
-      </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -995,87 +995,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>379</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1141,87 +1141,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1287,87 +1287,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1433,87 +1433,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1579,87 +1579,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-khm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-khm</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>793</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1725,87 +1725,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1871,87 +1871,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -331,6 +331,131 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -623,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,8 +771,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -655,11 +780,11 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -833,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -995,1022 +1120,1686 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>379</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
-      </c>
-      <c r="AB3" t="n">
-        <v/>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="n">
-        <v/>
-      </c>
-      <c r="AE3" t="n">
-        <v/>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="n">
-        <v/>
-      </c>
-      <c r="AI3" t="n">
-        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,8 +771,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -791,6 +791,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -954,164 +963,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>562</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1120,160 +1209,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>379</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1282,160 +1411,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1444,160 +1613,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1606,160 +1815,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1768,160 +2017,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-khm</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1930,160 +2219,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2092,160 +2421,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2254,160 +2623,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2416,160 +2825,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2578,67 +3027,83 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S12" t="n">
         <v/>
@@ -2686,73 +3151,113 @@
         <v/>
       </c>
       <c r="AI12" t="n">
+        <v/>
+      </c>
+      <c r="AK12" t="n">
+        <v/>
+      </c>
+      <c r="AL12" t="n">
+        <v/>
+      </c>
+      <c r="AM12" t="n">
+        <v/>
+      </c>
+      <c r="AN12" t="n">
+        <v/>
+      </c>
+      <c r="AO12" t="n">
+        <v/>
+      </c>
+      <c r="AP12" t="n">
+        <v/>
+      </c>
+      <c r="AQ12" t="n">
+        <v/>
+      </c>
+      <c r="AR12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v/>
@@ -2800,6 +3305,30 @@
         <v/>
       </c>
       <c r="AI13" t="n">
+        <v/>
+      </c>
+      <c r="AK13" t="n">
+        <v/>
+      </c>
+      <c r="AL13" t="n">
+        <v/>
+      </c>
+      <c r="AM13" t="n">
+        <v/>
+      </c>
+      <c r="AN13" t="n">
+        <v/>
+      </c>
+      <c r="AO13" t="n">
+        <v/>
+      </c>
+      <c r="AP13" t="n">
+        <v/>
+      </c>
+      <c r="AQ13" t="n">
+        <v/>
+      </c>
+      <c r="AR13" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -431,31 +431,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>264</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -748,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,26 +755,17 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -963,388 +929,308 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>575</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>562</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>578</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1354,7 +1240,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1364,1770 +1250,1314 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-khm</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>793</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-khm</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>793</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-khm</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>793</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB12" t="n">
         <v/>
@@ -3151,137 +2581,129 @@
         <v/>
       </c>
       <c r="AI12" t="n">
-        <v/>
-      </c>
-      <c r="AK12" t="n">
-        <v/>
-      </c>
-      <c r="AL12" t="n">
-        <v/>
-      </c>
-      <c r="AM12" t="n">
-        <v/>
-      </c>
-      <c r="AN12" t="n">
-        <v/>
-      </c>
-      <c r="AO12" t="n">
-        <v/>
-      </c>
-      <c r="AP12" t="n">
-        <v/>
-      </c>
-      <c r="AQ12" t="n">
-        <v/>
-      </c>
-      <c r="AR12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB13" t="n">
         <v/>
@@ -3305,30 +2727,6 @@
         <v/>
       </c>
       <c r="AI13" t="n">
-        <v/>
-      </c>
-      <c r="AK13" t="n">
-        <v/>
-      </c>
-      <c r="AL13" t="n">
-        <v/>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="n">
-        <v/>
-      </c>
-      <c r="AO13" t="n">
-        <v/>
-      </c>
-      <c r="AP13" t="n">
-        <v/>
-      </c>
-      <c r="AQ13" t="n">
-        <v/>
-      </c>
-      <c r="AR13" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -933,289 +933,289 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>575</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>562</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>580</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1257,127 +1257,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1419,87 +1419,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1565,87 +1565,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1711,87 +1711,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1857,87 +1857,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2003,87 +2003,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2149,87 +2149,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2295,87 +2295,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2441,87 +2441,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2587,112 +2587,112 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -933,152 +933,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>571</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>575</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>562</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1095,127 +1095,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1257,129 +1257,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>residentui</t>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1419,87 +1419,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1565,87 +1565,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1711,87 +1711,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1857,87 +1857,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2003,87 +2003,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2149,87 +2149,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2295,87 +2295,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2441,87 +2441,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2587,112 +2587,112 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -759,13 +759,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -933,152 +933,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>571</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>575</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1095,1639 +1095,1783 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -758,30 +758,30 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>384</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>81</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>78</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,111 +1120,111 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
+      </c>
+      <c r="Z3" t="n">
+        <v/>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1266,113 +1266,113 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>residentui</t>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1412,107 +1412,107 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
       </c>
       <c r="AB5" t="n">
         <v/>
@@ -1542,107 +1542,107 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
       </c>
       <c r="AB6" t="n">
         <v/>
@@ -1672,107 +1672,107 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
       </c>
       <c r="AB7" t="n">
         <v/>
@@ -1802,107 +1802,107 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
       </c>
       <c r="AB8" t="n">
         <v/>
@@ -1932,107 +1932,107 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1106</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
       </c>
       <c r="AB9" t="n">
         <v/>
@@ -2062,107 +2062,107 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
       </c>
       <c r="AB10" t="n">
         <v/>
@@ -2192,107 +2192,107 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
       </c>
       <c r="AB11" t="n">
         <v/>
@@ -2320,29 +2320,45 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J12" t="n">
         <v/>
@@ -2368,45 +2384,29 @@
       <c r="Q12" t="n">
         <v/>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
       </c>
       <c r="AB12" t="n">
         <v/>
@@ -2434,29 +2434,45 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J13" t="n">
         <v/>
@@ -2482,45 +2498,29 @@
       <c r="Q13" t="n">
         <v/>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
       </c>
       <c r="AB13" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,8 +758,8 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
@@ -771,13 +771,13 @@
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
@@ -958,561 +958,577 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>384</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>508</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
-      </c>
-      <c r="Z3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
-      </c>
-      <c r="Z4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v/>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
-      </c>
-      <c r="Z5" t="n">
-        <v/>
       </c>
       <c r="AB5" t="n">
         <v/>
@@ -1542,107 +1558,123 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
-      </c>
-      <c r="Z6" t="n">
-        <v/>
       </c>
       <c r="AB6" t="n">
         <v/>
@@ -1672,107 +1704,123 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
-        <v/>
       </c>
       <c r="AB7" t="n">
         <v/>
@@ -1802,107 +1850,123 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
       </c>
       <c r="AB8" t="n">
         <v/>
@@ -1932,107 +1996,123 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1106</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
       </c>
       <c r="AB9" t="n">
         <v/>
@@ -2062,107 +2142,123 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB10" t="n">
         <v/>
@@ -2192,107 +2288,123 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
-      </c>
-      <c r="Z11" t="n">
-        <v/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB11" t="n">
         <v/>
@@ -2322,67 +2434,83 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="S12" t="n">
         <v/>
@@ -2436,114 +2564,260 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -780,13 +780,13 @@
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
@@ -958,1583 +958,1743 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>384</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB3" t="n">
-        <v/>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="n">
-        <v/>
-      </c>
-      <c r="AE3" t="n">
-        <v/>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="n">
-        <v/>
-      </c>
-      <c r="AI3" t="n">
-        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1106</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1050</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
       </c>
       <c r="AB12" t="n">
         <v/>
@@ -2564,107 +2724,123 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB13" t="n">
         <v/>
@@ -2694,107 +2870,123 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
-        <v/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB14" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,8 +789,17 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -954,164 +963,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>384</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1120,160 +1209,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1282,160 +1411,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1444,160 +1613,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1606,160 +1815,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1768,160 +2017,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1930,160 +2219,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2092,160 +2421,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1106</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2254,160 +2623,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2416,160 +2825,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2578,438 +3027,558 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1050</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="n">
+      <c r="AK12" t="n">
         <v/>
       </c>
-      <c r="AC12" t="n">
+      <c r="AL12" t="n">
         <v/>
       </c>
-      <c r="AD12" t="n">
+      <c r="AM12" t="n">
         <v/>
       </c>
-      <c r="AE12" t="n">
+      <c r="AN12" t="n">
         <v/>
       </c>
-      <c r="AF12" t="n">
+      <c r="AO12" t="n">
         <v/>
       </c>
-      <c r="AG12" t="n">
+      <c r="AP12" t="n">
         <v/>
       </c>
-      <c r="AH12" t="n">
+      <c r="AQ12" t="n">
         <v/>
       </c>
-      <c r="AI12" t="n">
+      <c r="AR12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="n">
         <v/>
       </c>
-      <c r="AC13" t="n">
+      <c r="AL13" t="n">
         <v/>
       </c>
-      <c r="AD13" t="n">
+      <c r="AM13" t="n">
         <v/>
       </c>
-      <c r="AE13" t="n">
+      <c r="AN13" t="n">
         <v/>
       </c>
-      <c r="AF13" t="n">
+      <c r="AO13" t="n">
         <v/>
       </c>
-      <c r="AG13" t="n">
+      <c r="AP13" t="n">
         <v/>
       </c>
-      <c r="AH13" t="n">
+      <c r="AQ13" t="n">
         <v/>
       </c>
-      <c r="AI13" t="n">
+      <c r="AR13" t="n">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="n">
         <v/>
       </c>
-      <c r="AC14" t="n">
+      <c r="AL14" t="n">
         <v/>
       </c>
-      <c r="AD14" t="n">
+      <c r="AM14" t="n">
         <v/>
       </c>
-      <c r="AE14" t="n">
+      <c r="AN14" t="n">
         <v/>
       </c>
-      <c r="AF14" t="n">
+      <c r="AO14" t="n">
         <v/>
       </c>
-      <c r="AG14" t="n">
+      <c r="AP14" t="n">
         <v/>
       </c>
-      <c r="AH14" t="n">
+      <c r="AQ14" t="n">
         <v/>
       </c>
-      <c r="AI14" t="n">
+      <c r="AR14" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,22 +784,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -963,244 +954,164 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>508</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1209,344 +1120,304 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1556,209 +1427,169 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1768,1549 +1599,1133 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1085</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1050</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="n">
-        <v/>
-      </c>
-      <c r="AL12" t="n">
-        <v/>
-      </c>
-      <c r="AM12" t="n">
-        <v/>
-      </c>
-      <c r="AN12" t="n">
-        <v/>
-      </c>
-      <c r="AO12" t="n">
-        <v/>
-      </c>
-      <c r="AP12" t="n">
-        <v/>
-      </c>
-      <c r="AQ12" t="n">
-        <v/>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>0</t>
@@ -3331,182 +2746,142 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="n">
-        <v/>
-      </c>
-      <c r="AL13" t="n">
-        <v/>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="n">
-        <v/>
-      </c>
-      <c r="AO13" t="n">
-        <v/>
-      </c>
-      <c r="AP13" t="n">
-        <v/>
-      </c>
-      <c r="AQ13" t="n">
-        <v/>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Y14" t="inlineStr">
         <is>
           <t>0</t>
@@ -3517,68 +2892,28 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="n">
-        <v/>
-      </c>
-      <c r="AL14" t="n">
-        <v/>
-      </c>
-      <c r="AM14" t="n">
-        <v/>
-      </c>
-      <c r="AN14" t="n">
-        <v/>
-      </c>
-      <c r="AO14" t="n">
-        <v/>
-      </c>
-      <c r="AP14" t="n">
-        <v/>
-      </c>
-      <c r="AQ14" t="n">
-        <v/>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>96</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>92</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,129 +1120,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1282,127 +1282,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1444,129 +1444,129 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>residentui</t>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1606,87 +1606,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1752,87 +1752,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1898,87 +1898,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2044,87 +2044,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2190,112 +2190,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2336,87 +2336,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2482,112 +2482,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1085</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2628,87 +2628,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2774,112 +2774,112 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>96</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,129 +1120,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1282,127 +1282,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1444,129 +1444,129 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>residentui</t>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1606,87 +1606,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1752,87 +1752,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1898,87 +1898,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2044,87 +2044,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2190,87 +2190,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>492</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2336,87 +2336,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2482,112 +2482,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1085</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>43</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2628,87 +2628,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2774,87 +2774,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -784,13 +784,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -958,127 +958,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1120,1801 +1120,1945 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1085</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,6 +791,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -954,164 +963,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>506</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1120,160 +1209,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1282,160 +1411,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1444,160 +1613,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1606,160 +1815,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1768,160 +2017,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1930,160 +2219,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2092,160 +2421,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2254,160 +2623,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2416,160 +2825,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2578,160 +3027,200 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2740,160 +3229,200 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2902,160 +3431,200 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -765,7 +765,7 @@
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>506</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>83</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>508</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>79</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,127 +1120,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1282,127 +1282,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1444,127 +1444,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1606,87 +1606,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1752,87 +1752,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1898,87 +1898,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2044,87 +2044,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2190,87 +2190,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2336,87 +2336,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2482,87 +2482,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2628,87 +2628,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2774,87 +2774,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -774,7 +774,7 @@
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>506</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>83</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,127 +1120,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1282,127 +1282,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1444,127 +1444,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1606,87 +1606,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1752,87 +1752,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1898,87 +1898,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2044,87 +2044,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2190,87 +2190,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2336,87 +2336,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2482,87 +2482,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2628,87 +2628,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2774,87 +2774,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -783,14 +783,14 @@
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>79</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>78</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,1801 +1120,1945 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,6 +791,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -954,164 +963,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1120,160 +1209,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1282,160 +1411,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1444,160 +1613,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1606,160 +1815,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1768,160 +2017,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1930,160 +2219,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2092,160 +2421,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2254,160 +2623,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2416,160 +2825,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2578,160 +3027,200 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2740,160 +3229,200 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2902,160 +3431,200 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>80</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>78</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,127 +1120,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1282,127 +1282,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1444,127 +1444,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>921</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1606,87 +1606,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1752,87 +1752,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1898,87 +1898,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2044,87 +2044,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2190,112 +2190,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>491</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>492</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2336,87 +2336,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2482,112 +2482,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1081</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2628,87 +2628,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2774,112 +2774,112 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>507</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>80</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,129 +1120,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1081</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1282,127 +1282,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1444,129 +1444,129 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>921</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>residentui</t>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1606,87 +1606,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1752,87 +1752,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1898,87 +1898,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2044,87 +2044,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2190,112 +2190,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>491</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2336,87 +2336,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2482,112 +2482,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1081</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>43</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2628,87 +2628,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2774,112 +2774,112 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -784,13 +784,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>79</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>78</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,1801 +1120,1945 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1081</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>921</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1082</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,6 +791,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -954,164 +963,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1120,160 +1209,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1282,160 +1411,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1444,160 +1613,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>921</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1606,160 +1815,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1768,160 +2017,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1930,160 +2219,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2092,160 +2421,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2254,160 +2623,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>492</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2416,160 +2825,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2578,160 +3027,200 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1085</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1082</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2740,160 +3229,200 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2902,160 +3431,200 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -759,7 +759,7 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
@@ -768,7 +768,7 @@
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>495</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>92</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>507</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>80</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,129 +1120,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1282,127 +1282,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1444,127 +1444,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>921</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1606,87 +1606,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1752,87 +1752,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1898,87 +1898,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2044,87 +2044,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2190,87 +2190,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2336,87 +2336,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2482,112 +2482,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>841</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>257</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1081</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>44</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1085</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>43</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2628,87 +2628,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2774,87 +2774,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -768,7 +768,7 @@
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
@@ -777,7 +777,7 @@
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>503</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>79</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>92</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,129 +1120,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>1081</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1282,127 +1282,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1444,127 +1444,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>921</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1606,87 +1606,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1752,87 +1752,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1898,87 +1898,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2044,87 +2044,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2190,87 +2190,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2336,87 +2336,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2482,112 +2482,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>841</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>257</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1081</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>44</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2628,87 +2628,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2774,87 +2774,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -777,20 +777,20 @@
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -958,152 +958,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>503</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>93</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>508</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>79</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,1801 +1120,1945 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1081</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>921</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>841</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>257</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,11 +786,20 @@
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -954,164 +963,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>503</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1120,160 +1209,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1282,160 +1411,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1444,160 +1613,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>921</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1606,160 +1815,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1768,160 +2017,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1930,160 +2219,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2092,160 +2421,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2254,160 +2623,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2416,160 +2825,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2578,160 +3027,200 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>841</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>257</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2740,160 +3229,200 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2902,160 +3431,200 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -456,6 +456,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -748,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,8 +787,8 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -780,8 +805,8 @@
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
@@ -958,152 +983,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>510</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>507</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>80</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>511</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>78</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1120,127 +1145,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1282,127 +1307,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1444,127 +1469,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>17-September-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1606,87 +1631,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1752,87 +1777,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1898,87 +1923,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2044,87 +2069,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2190,87 +2215,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2336,87 +2361,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2482,87 +2507,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2628,87 +2653,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2774,146 +2799,260 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="n">
+        <v/>
+      </c>
+      <c r="W15" t="n">
+        <v/>
+      </c>
+      <c r="X15" t="n">
+        <v/>
+      </c>
+      <c r="Y15" t="n">
+        <v/>
+      </c>
+      <c r="Z15" t="n">
+        <v/>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -783,8 +783,8 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
@@ -796,8 +796,8 @@
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -805,8 +805,8 @@
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
@@ -983,152 +983,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>510</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>79</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>507</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>80</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1145,127 +1145,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1307,127 +1307,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1469,127 +1469,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1631,87 +1631,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1777,87 +1777,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1923,87 +1923,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2069,87 +2069,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2215,87 +2215,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2361,87 +2361,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2507,87 +2507,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -2651,114 +2651,98 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2797,114 +2781,98 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2967,69 +2935,69 @@
       <c r="H15" t="n">
         <v/>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v/>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="n">
+        <v/>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="n">
-        <v/>
-      </c>
-      <c r="U15" t="n">
-        <v/>
-      </c>
-      <c r="V15" t="n">
-        <v/>
-      </c>
-      <c r="W15" t="n">
-        <v/>
-      </c>
-      <c r="X15" t="n">
-        <v/>
-      </c>
-      <c r="Y15" t="n">
-        <v/>
-      </c>
-      <c r="Z15" t="n">
-        <v/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB15" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -792,8 +792,8 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
@@ -805,17 +805,17 @@
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -983,147 +983,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -1145,1509 +1145,1621 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1086</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
@@ -2675,109 +2787,109 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2805,109 +2917,109 @@
       <c r="H14" t="n">
         <v/>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2959,69 +3071,69 @@
       <c r="Q15" t="n">
         <v/>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="n">
+        <v/>
+      </c>
+      <c r="W15" t="n">
+        <v/>
+      </c>
+      <c r="X15" t="n">
+        <v/>
+      </c>
+      <c r="Y15" t="n">
+        <v/>
+      </c>
+      <c r="Z15" t="n">
+        <v/>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v/>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,8 +801,8 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
@@ -814,8 +814,17 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -979,164 +988,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>508</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1145,160 +1234,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1307,160 +1436,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1469,160 +1638,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1631,160 +1840,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -1793,160 +2042,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -1955,160 +2244,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2117,160 +2446,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -2279,160 +2648,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2441,160 +2850,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2603,160 +3052,200 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>1086</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2811,82 +3300,106 @@
       <c r="Q13" t="n">
         <v/>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2941,82 +3454,106 @@
       <c r="Q14" t="n">
         <v/>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3095,42 +3632,66 @@
       <c r="Z15" t="n">
         <v/>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -734,7 +734,7 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -908,142 +908,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>894</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1053,159 +1053,159 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>922</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1225,986 +1225,1066 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2270,87 +2350,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2416,87 +2496,87 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -406,6 +406,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -698,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,10 +756,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
@@ -721,8 +771,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -730,11 +780,11 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -908,142 +958,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1053,169 +1103,169 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1225,1066 +1275,970 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>906</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>785</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>785</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2350,87 +2304,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>29-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2496,146 +2450,374 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01-October-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/qa-base.xlsx
+++ b/minio-report-tracker/xlxs/qa-base.xlsx
@@ -765,14 +765,14 @@
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -784,7 +784,7 @@
     <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -958,1705 +958,1865 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>577</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>26-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>894</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>30-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c